--- a/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T20:06:16+02:00</t>
+    <t>2025-05-13T19:16:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T19:16:00+02:00</t>
+    <t>2025-05-14T23:21:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:21:35+02:00</t>
+    <t>2025-05-14T23:43:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-bag-mask-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:43:24+02:00</t>
+    <t>2025-05-19T18:20:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/medinterop-renner/TraumaIG, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -690,7 +690,7 @@
   &lt;coding&gt;
     &lt;system value="http://snomed.info/sct"/&gt;
     &lt;code value="425696007"/&gt;
-    &lt;display value=" Manual respiratory assistance using bag and mask (procedure)"/&gt;
+    &lt;display value="Manual respiratory assistance using bag and mask (procedure)"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
